--- a/src/main/resources/mime.xlsx
+++ b/src/main/resources/mime.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/flavor/program/mime-type/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00BEDDDF-527D-E642-BA01-C9DA98C86E29}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9720D9BB-A763-E04A-B912-8ED84EBD3B6A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="file-header" sheetId="1" r:id="rId1"/>
@@ -3804,7 +3804,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3840,6 +3840,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
@@ -5010,7 +5013,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -5041,7 +5044,7 @@
       <c r="A2" s="9">
         <v>123</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="12" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="10" t="s">
@@ -9163,7 +9166,7 @@
       <c r="B285" s="10" t="s">
         <v>682</v>
       </c>
-      <c r="C285" s="12" t="s">
+      <c r="C285" s="13" t="s">
         <v>683</v>
       </c>
       <c r="D285" s="7"/>
@@ -9178,7 +9181,7 @@
       <c r="B286" s="10" t="s">
         <v>684</v>
       </c>
-      <c r="C286" s="13"/>
+      <c r="C286" s="14"/>
       <c r="D286" s="7"/>
       <c r="E286" s="3"/>
       <c r="F286" s="3"/>
@@ -10728,7 +10731,7 @@
   <dimension ref="A1:B189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection sqref="A1:B189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -10737,7 +10740,7 @@
     <col min="2" max="2" width="71.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="38">
+    <row r="1" spans="1:2" ht="19">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -10745,13 +10748,13 @@
         <v>941</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="76">
+    <row r="2" spans="1:2" ht="19">
       <c r="A2" s="5"/>
       <c r="B2" s="5" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="38">
+    <row r="3" spans="1:2" ht="19">
       <c r="A3" s="5">
         <v>323</v>
       </c>
@@ -10759,7 +10762,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="114">
+    <row r="4" spans="1:2" ht="19">
       <c r="A4" s="5" t="s">
         <v>944</v>
       </c>
@@ -10767,7 +10770,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="57">
+    <row r="5" spans="1:2" ht="19">
       <c r="A5" s="5" t="s">
         <v>946</v>
       </c>
@@ -10775,7 +10778,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="38">
+    <row r="6" spans="1:2" ht="19">
       <c r="A6" s="5" t="s">
         <v>948</v>
       </c>
@@ -10783,7 +10786,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="38">
+    <row r="7" spans="1:2" ht="19">
       <c r="A7" s="5" t="s">
         <v>950</v>
       </c>
@@ -10791,7 +10794,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="38">
+    <row r="8" spans="1:2" ht="19">
       <c r="A8" s="5" t="s">
         <v>951</v>
       </c>
@@ -10799,7 +10802,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="38">
+    <row r="9" spans="1:2" ht="19">
       <c r="A9" s="5" t="s">
         <v>63</v>
       </c>
@@ -10807,7 +10810,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="38">
+    <row r="10" spans="1:2" ht="19">
       <c r="A10" s="5" t="s">
         <v>953</v>
       </c>
@@ -10815,7 +10818,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="38">
+    <row r="11" spans="1:2" ht="19">
       <c r="A11" s="5" t="s">
         <v>69</v>
       </c>
@@ -10823,7 +10826,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="38">
+    <row r="12" spans="1:2" ht="19">
       <c r="A12" s="5" t="s">
         <v>72</v>
       </c>
@@ -10831,7 +10834,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="57">
+    <row r="13" spans="1:2" ht="19">
       <c r="A13" s="5" t="s">
         <v>75</v>
       </c>
@@ -10839,7 +10842,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="57">
+    <row r="14" spans="1:2" ht="19">
       <c r="A14" s="5" t="s">
         <v>956</v>
       </c>
@@ -10847,7 +10850,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="38">
+    <row r="15" spans="1:2" ht="19">
       <c r="A15" s="5" t="s">
         <v>958</v>
       </c>
@@ -10855,7 +10858,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="57">
+    <row r="16" spans="1:2" ht="19">
       <c r="A16" s="5" t="s">
         <v>960</v>
       </c>
@@ -10863,7 +10866,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="76">
+    <row r="17" spans="1:2" ht="19">
       <c r="A17" s="5" t="s">
         <v>86</v>
       </c>
@@ -10871,7 +10874,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="38">
+    <row r="18" spans="1:2" ht="19">
       <c r="A18" s="5" t="s">
         <v>89</v>
       </c>
@@ -10879,7 +10882,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="38">
+    <row r="19" spans="1:2" ht="19">
       <c r="A19" s="5" t="s">
         <v>963</v>
       </c>
@@ -10887,7 +10890,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="95">
+    <row r="20" spans="1:2" ht="19">
       <c r="A20" s="5" t="s">
         <v>106</v>
       </c>
@@ -10895,7 +10898,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="57">
+    <row r="21" spans="1:2" ht="19">
       <c r="A21" s="5" t="s">
         <v>965</v>
       </c>
@@ -10903,7 +10906,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="76">
+    <row r="22" spans="1:2" ht="19">
       <c r="A22" s="5" t="s">
         <v>967</v>
       </c>
@@ -10911,7 +10914,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="76">
+    <row r="23" spans="1:2" ht="19">
       <c r="A23" s="5" t="s">
         <v>969</v>
       </c>
@@ -10919,7 +10922,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="57">
+    <row r="24" spans="1:2" ht="19">
       <c r="A24" s="5" t="s">
         <v>970</v>
       </c>
@@ -10927,7 +10930,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="38">
+    <row r="25" spans="1:2" ht="19">
       <c r="A25" s="5" t="s">
         <v>972</v>
       </c>
@@ -10935,7 +10938,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="38">
+    <row r="26" spans="1:2" ht="19">
       <c r="A26" s="5" t="s">
         <v>974</v>
       </c>
@@ -10943,7 +10946,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="57">
+    <row r="27" spans="1:2" ht="19">
       <c r="A27" s="5" t="s">
         <v>976</v>
       </c>
@@ -10951,7 +10954,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="76">
+    <row r="28" spans="1:2" ht="19">
       <c r="A28" s="5" t="s">
         <v>978</v>
       </c>
@@ -10959,7 +10962,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="57">
+    <row r="29" spans="1:2" ht="19">
       <c r="A29" s="5" t="s">
         <v>980</v>
       </c>
@@ -10967,7 +10970,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="76">
+    <row r="30" spans="1:2" ht="19">
       <c r="A30" s="5" t="s">
         <v>982</v>
       </c>
@@ -10975,7 +10978,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="57">
+    <row r="31" spans="1:2" ht="19">
       <c r="A31" s="5" t="s">
         <v>983</v>
       </c>
@@ -10991,7 +10994,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="57">
+    <row r="33" spans="1:2" ht="19">
       <c r="A33" s="5" t="s">
         <v>987</v>
       </c>
@@ -10999,7 +11002,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="76">
+    <row r="34" spans="1:2" ht="19">
       <c r="A34" s="5" t="s">
         <v>989</v>
       </c>
@@ -11007,7 +11010,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="57">
+    <row r="35" spans="1:2" ht="19">
       <c r="A35" s="5" t="s">
         <v>990</v>
       </c>
@@ -11015,7 +11018,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="76">
+    <row r="36" spans="1:2" ht="19">
       <c r="A36" s="5" t="s">
         <v>991</v>
       </c>
@@ -11023,7 +11026,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="76">
+    <row r="37" spans="1:2" ht="19">
       <c r="A37" s="5" t="s">
         <v>993</v>
       </c>
@@ -11031,7 +11034,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="57">
+    <row r="38" spans="1:2" ht="19">
       <c r="A38" s="5" t="s">
         <v>215</v>
       </c>
@@ -11039,7 +11042,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="57">
+    <row r="39" spans="1:2" ht="19">
       <c r="A39" s="5" t="s">
         <v>995</v>
       </c>
@@ -11047,7 +11050,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="57">
+    <row r="40" spans="1:2" ht="19">
       <c r="A40" s="5" t="s">
         <v>996</v>
       </c>
@@ -11055,7 +11058,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="57">
+    <row r="41" spans="1:2" ht="19">
       <c r="A41" s="5" t="s">
         <v>998</v>
       </c>
@@ -11063,7 +11066,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="57">
+    <row r="42" spans="1:2" ht="19">
       <c r="A42" s="5" t="s">
         <v>288</v>
       </c>
@@ -11071,7 +11074,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="38">
+    <row r="43" spans="1:2" ht="19">
       <c r="A43" s="5" t="s">
         <v>999</v>
       </c>
@@ -11079,7 +11082,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="57">
+    <row r="44" spans="1:2" ht="19">
       <c r="A44" s="5" t="s">
         <v>1001</v>
       </c>
@@ -11087,7 +11090,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="76">
+    <row r="45" spans="1:2" ht="19">
       <c r="A45" s="5" t="s">
         <v>1003</v>
       </c>
@@ -11095,7 +11098,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="57">
+    <row r="46" spans="1:2" ht="19">
       <c r="A46" s="5" t="s">
         <v>1004</v>
       </c>
@@ -11103,7 +11106,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="57">
+    <row r="47" spans="1:2" ht="19">
       <c r="A47" s="5" t="s">
         <v>1006</v>
       </c>
@@ -11111,7 +11114,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="38">
+    <row r="48" spans="1:2" ht="19">
       <c r="A48" s="5" t="s">
         <v>347</v>
       </c>
@@ -11119,7 +11122,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="57">
+    <row r="49" spans="1:2" ht="19">
       <c r="A49" s="5" t="s">
         <v>1009</v>
       </c>
@@ -11127,7 +11130,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="57">
+    <row r="50" spans="1:2" ht="19">
       <c r="A50" s="5" t="s">
         <v>1011</v>
       </c>
@@ -11135,7 +11138,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="38">
+    <row r="51" spans="1:2" ht="19">
       <c r="A51" s="5" t="s">
         <v>1013</v>
       </c>
@@ -11143,7 +11146,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="57">
+    <row r="52" spans="1:2" ht="19">
       <c r="A52" s="5" t="s">
         <v>1014</v>
       </c>
@@ -11151,7 +11154,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="57">
+    <row r="53" spans="1:2" ht="19">
       <c r="A53" s="5" t="s">
         <v>373</v>
       </c>
@@ -11159,7 +11162,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="76">
+    <row r="54" spans="1:2" ht="19">
       <c r="A54" s="5" t="s">
         <v>376</v>
       </c>
@@ -11167,7 +11170,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="38">
+    <row r="55" spans="1:2" ht="19">
       <c r="A55" s="5" t="s">
         <v>1018</v>
       </c>
@@ -11175,7 +11178,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="57">
+    <row r="56" spans="1:2" ht="19">
       <c r="A56" s="5" t="s">
         <v>1020</v>
       </c>
@@ -11183,7 +11186,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="38">
+    <row r="57" spans="1:2" ht="19">
       <c r="A57" s="5" t="s">
         <v>1022</v>
       </c>
@@ -11191,7 +11194,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="38">
+    <row r="58" spans="1:2" ht="19">
       <c r="A58" s="5" t="s">
         <v>389</v>
       </c>
@@ -11199,7 +11202,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="57">
+    <row r="59" spans="1:2" ht="19">
       <c r="A59" s="5" t="s">
         <v>1024</v>
       </c>
@@ -11207,7 +11210,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="38">
+    <row r="60" spans="1:2" ht="19">
       <c r="A60" s="5" t="s">
         <v>392</v>
       </c>
@@ -11215,7 +11218,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="38">
+    <row r="61" spans="1:2" ht="19">
       <c r="A61" s="5" t="s">
         <v>1027</v>
       </c>
@@ -11223,7 +11226,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="57">
+    <row r="62" spans="1:2" ht="19">
       <c r="A62" s="5" t="s">
         <v>1029</v>
       </c>
@@ -11231,7 +11234,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="76">
+    <row r="63" spans="1:2" ht="19">
       <c r="A63" s="5" t="s">
         <v>1031</v>
       </c>
@@ -11239,7 +11242,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="76">
+    <row r="64" spans="1:2" ht="19">
       <c r="A64" s="5" t="s">
         <v>1033</v>
       </c>
@@ -11247,7 +11250,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="38">
+    <row r="65" spans="1:2" ht="19">
       <c r="A65" s="5" t="s">
         <v>1034</v>
       </c>
@@ -11255,7 +11258,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="38">
+    <row r="66" spans="1:2" ht="19">
       <c r="A66" s="5" t="s">
         <v>1036</v>
       </c>
@@ -11263,7 +11266,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="38">
+    <row r="67" spans="1:2" ht="19">
       <c r="A67" s="5" t="s">
         <v>1038</v>
       </c>
@@ -11271,7 +11274,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="38">
+    <row r="68" spans="1:2" ht="19">
       <c r="A68" s="5" t="s">
         <v>1039</v>
       </c>
@@ -11279,7 +11282,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="76">
+    <row r="69" spans="1:2" ht="19">
       <c r="A69" s="5" t="s">
         <v>1040</v>
       </c>
@@ -11287,7 +11290,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="57">
+    <row r="70" spans="1:2" ht="19">
       <c r="A70" s="5" t="s">
         <v>1042</v>
       </c>
@@ -11295,7 +11298,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="76">
+    <row r="71" spans="1:2" ht="19">
       <c r="A71" s="5" t="s">
         <v>436</v>
       </c>
@@ -11303,7 +11306,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="38">
+    <row r="72" spans="1:2" ht="19">
       <c r="A72" s="5" t="s">
         <v>1044</v>
       </c>
@@ -11311,7 +11314,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="38">
+    <row r="73" spans="1:2" ht="19">
       <c r="A73" s="5" t="s">
         <v>1046</v>
       </c>
@@ -11319,7 +11322,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="76">
+    <row r="74" spans="1:2" ht="19">
       <c r="A74" s="5" t="s">
         <v>465</v>
       </c>
@@ -11327,7 +11330,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="76">
+    <row r="75" spans="1:2" ht="19">
       <c r="A75" s="5" t="s">
         <v>1047</v>
       </c>
@@ -11335,7 +11338,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="76">
+    <row r="76" spans="1:2" ht="19">
       <c r="A76" s="5" t="s">
         <v>1049</v>
       </c>
@@ -11343,7 +11346,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="57">
+    <row r="77" spans="1:2" ht="19">
       <c r="A77" s="5" t="s">
         <v>471</v>
       </c>
@@ -11351,7 +11354,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="76">
+    <row r="78" spans="1:2" ht="19">
       <c r="A78" s="5" t="s">
         <v>1051</v>
       </c>
@@ -11359,7 +11362,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="76">
+    <row r="79" spans="1:2" ht="19">
       <c r="A79" s="5" t="s">
         <v>490</v>
       </c>
@@ -11367,7 +11370,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="76">
+    <row r="80" spans="1:2" ht="19">
       <c r="A80" s="5" t="s">
         <v>1054</v>
       </c>
@@ -11375,7 +11378,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="57">
+    <row r="81" spans="1:2" ht="19">
       <c r="A81" s="5" t="s">
         <v>1056</v>
       </c>
@@ -11383,7 +11386,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="57">
+    <row r="82" spans="1:2" ht="19">
       <c r="A82" s="5" t="s">
         <v>1058</v>
       </c>
@@ -11391,7 +11394,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="38">
+    <row r="83" spans="1:2" ht="19">
       <c r="A83" s="5" t="s">
         <v>1059</v>
       </c>
@@ -11399,7 +11402,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="76">
+    <row r="84" spans="1:2" ht="19">
       <c r="A84" s="5" t="s">
         <v>525</v>
       </c>
@@ -11407,7 +11410,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="57">
+    <row r="85" spans="1:2" ht="19">
       <c r="A85" s="5" t="s">
         <v>531</v>
       </c>
@@ -11415,7 +11418,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="57">
+    <row r="86" spans="1:2" ht="19">
       <c r="A86" s="5" t="s">
         <v>1063</v>
       </c>
@@ -11423,7 +11426,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="38">
+    <row r="87" spans="1:2" ht="19">
       <c r="A87" s="5" t="s">
         <v>1065</v>
       </c>
@@ -11431,7 +11434,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="38">
+    <row r="88" spans="1:2" ht="19">
       <c r="A88" s="5" t="s">
         <v>1067</v>
       </c>
@@ -11439,7 +11442,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="38">
+    <row r="89" spans="1:2" ht="19">
       <c r="A89" s="5" t="s">
         <v>1069</v>
       </c>
@@ -11447,7 +11450,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="38">
+    <row r="90" spans="1:2" ht="19">
       <c r="A90" s="5" t="s">
         <v>1070</v>
       </c>
@@ -11455,7 +11458,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="38">
+    <row r="91" spans="1:2" ht="19">
       <c r="A91" s="5" t="s">
         <v>1071</v>
       </c>
@@ -11463,7 +11466,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="38">
+    <row r="92" spans="1:2" ht="19">
       <c r="A92" s="5" t="s">
         <v>551</v>
       </c>
@@ -11471,7 +11474,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="76">
+    <row r="93" spans="1:2" ht="19">
       <c r="A93" s="5" t="s">
         <v>1072</v>
       </c>
@@ -11479,7 +11482,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="38">
+    <row r="94" spans="1:2" ht="19">
       <c r="A94" s="5" t="s">
         <v>1074</v>
       </c>
@@ -11487,7 +11490,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="76">
+    <row r="95" spans="1:2" ht="19">
       <c r="A95" s="5" t="s">
         <v>1075</v>
       </c>
@@ -11495,7 +11498,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="76">
+    <row r="96" spans="1:2" ht="19">
       <c r="A96" s="5" t="s">
         <v>1077</v>
       </c>
@@ -11503,7 +11506,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="57">
+    <row r="97" spans="1:2" ht="19">
       <c r="A97" s="5" t="s">
         <v>1078</v>
       </c>
@@ -11511,7 +11514,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="38">
+    <row r="98" spans="1:2" ht="19">
       <c r="A98" s="5" t="s">
         <v>1079</v>
       </c>
@@ -11519,7 +11522,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="57">
+    <row r="99" spans="1:2" ht="19">
       <c r="A99" s="5" t="s">
         <v>1081</v>
       </c>
@@ -11527,7 +11530,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="57">
+    <row r="100" spans="1:2" ht="19">
       <c r="A100" s="5" t="s">
         <v>1083</v>
       </c>
@@ -11535,7 +11538,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="95">
+    <row r="101" spans="1:2" ht="19">
       <c r="A101" s="5" t="s">
         <v>1085</v>
       </c>
@@ -11543,7 +11546,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="76">
+    <row r="102" spans="1:2" ht="19">
       <c r="A102" s="5" t="s">
         <v>1087</v>
       </c>
@@ -11551,7 +11554,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="76">
+    <row r="103" spans="1:2" ht="19">
       <c r="A103" s="5" t="s">
         <v>1089</v>
       </c>
@@ -11559,7 +11562,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="95">
+    <row r="104" spans="1:2" ht="19">
       <c r="A104" s="5" t="s">
         <v>1090</v>
       </c>
@@ -11567,7 +11570,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="95">
+    <row r="105" spans="1:2" ht="19">
       <c r="A105" s="5" t="s">
         <v>1092</v>
       </c>
@@ -11575,7 +11578,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="95">
+    <row r="106" spans="1:2" ht="19">
       <c r="A106" s="5" t="s">
         <v>1094</v>
       </c>
@@ -11583,7 +11586,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="38">
+    <row r="107" spans="1:2" ht="19">
       <c r="A107" s="5" t="s">
         <v>620</v>
       </c>
@@ -11591,7 +11594,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="57">
+    <row r="108" spans="1:2" ht="19">
       <c r="A108" s="5" t="s">
         <v>1097</v>
       </c>
@@ -11599,7 +11602,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="114">
+    <row r="109" spans="1:2" ht="19">
       <c r="A109" s="5" t="s">
         <v>1098</v>
       </c>
@@ -11607,7 +11610,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="76">
+    <row r="110" spans="1:2" ht="19">
       <c r="A110" s="5" t="s">
         <v>1100</v>
       </c>
@@ -11615,7 +11618,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="76">
+    <row r="111" spans="1:2" ht="19">
       <c r="A111" s="5" t="s">
         <v>1102</v>
       </c>
@@ -11623,7 +11626,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="76">
+    <row r="112" spans="1:2" ht="19">
       <c r="A112" s="5" t="s">
         <v>1104</v>
       </c>
@@ -11631,7 +11634,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="76">
+    <row r="113" spans="1:2" ht="19">
       <c r="A113" s="5" t="s">
         <v>1105</v>
       </c>
@@ -11639,7 +11642,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="76">
+    <row r="114" spans="1:2" ht="19">
       <c r="A114" s="5" t="s">
         <v>1106</v>
       </c>
@@ -11647,7 +11650,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="76">
+    <row r="115" spans="1:2" ht="19">
       <c r="A115" s="5" t="s">
         <v>1107</v>
       </c>
@@ -11655,7 +11658,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="95">
+    <row r="116" spans="1:2" ht="19">
       <c r="A116" s="5" t="s">
         <v>1108</v>
       </c>
@@ -11663,7 +11666,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="95">
+    <row r="117" spans="1:2" ht="19">
       <c r="A117" s="5" t="s">
         <v>1110</v>
       </c>
@@ -11671,7 +11674,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="95">
+    <row r="118" spans="1:2" ht="19">
       <c r="A118" s="5" t="s">
         <v>1112</v>
       </c>
@@ -11679,7 +11682,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="95">
+    <row r="119" spans="1:2" ht="19">
       <c r="A119" s="5" t="s">
         <v>1114</v>
       </c>
@@ -11687,7 +11690,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="95">
+    <row r="120" spans="1:2" ht="19">
       <c r="A120" s="5" t="s">
         <v>644</v>
       </c>
@@ -11695,7 +11698,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="57">
+    <row r="121" spans="1:2" ht="19">
       <c r="A121" s="5" t="s">
         <v>1115</v>
       </c>
@@ -11703,7 +11706,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="57">
+    <row r="122" spans="1:2" ht="19">
       <c r="A122" s="5" t="s">
         <v>655</v>
       </c>
@@ -11711,7 +11714,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="76">
+    <row r="123" spans="1:2" ht="19">
       <c r="A123" s="5" t="s">
         <v>1117</v>
       </c>
@@ -11719,7 +11722,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="57">
+    <row r="124" spans="1:2" ht="19">
       <c r="A124" s="5" t="s">
         <v>679</v>
       </c>
@@ -11727,7 +11730,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="76">
+    <row r="125" spans="1:2" ht="19">
       <c r="A125" s="5" t="s">
         <v>685</v>
       </c>
@@ -11735,7 +11738,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="76">
+    <row r="126" spans="1:2" ht="19">
       <c r="A126" s="5" t="s">
         <v>1120</v>
       </c>
@@ -11743,7 +11746,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="57">
+    <row r="127" spans="1:2" ht="19">
       <c r="A127" s="5" t="s">
         <v>1121</v>
       </c>
@@ -11751,7 +11754,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="38">
+    <row r="128" spans="1:2" ht="19">
       <c r="A128" s="5" t="s">
         <v>702</v>
       </c>
@@ -11759,7 +11762,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="38">
+    <row r="129" spans="1:2" ht="19">
       <c r="A129" s="5" t="s">
         <v>1124</v>
       </c>
@@ -11767,7 +11770,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="57">
+    <row r="130" spans="1:2" ht="19">
       <c r="A130" s="5" t="s">
         <v>1125</v>
       </c>
@@ -11775,7 +11778,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="38">
+    <row r="131" spans="1:2" ht="19">
       <c r="A131" s="5" t="s">
         <v>718</v>
       </c>
@@ -11783,7 +11786,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="38">
+    <row r="132" spans="1:2" ht="19">
       <c r="A132" s="5" t="s">
         <v>1128</v>
       </c>
@@ -11791,7 +11794,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="76">
+    <row r="133" spans="1:2" ht="19">
       <c r="A133" s="5" t="s">
         <v>1130</v>
       </c>
@@ -11799,7 +11802,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="38">
+    <row r="134" spans="1:2" ht="19">
       <c r="A134" s="5" t="s">
         <v>1132</v>
       </c>
@@ -11807,7 +11810,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="114">
+    <row r="135" spans="1:2" ht="19">
       <c r="A135" s="5" t="s">
         <v>1134</v>
       </c>
@@ -11815,7 +11818,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="114">
+    <row r="136" spans="1:2" ht="19">
       <c r="A136" s="5" t="s">
         <v>1136</v>
       </c>
@@ -11823,7 +11826,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="57">
+    <row r="137" spans="1:2" ht="19">
       <c r="A137" s="5" t="s">
         <v>1138</v>
       </c>
@@ -11831,7 +11834,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="57">
+    <row r="138" spans="1:2" ht="19">
       <c r="A138" s="5" t="s">
         <v>1140</v>
       </c>
@@ -11839,7 +11842,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="57">
+    <row r="139" spans="1:2" ht="19">
       <c r="A139" s="5" t="s">
         <v>737</v>
       </c>
@@ -11847,7 +11850,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="38">
+    <row r="140" spans="1:2" ht="19">
       <c r="A140" s="5" t="s">
         <v>1143</v>
       </c>
@@ -11855,7 +11858,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="95">
+    <row r="141" spans="1:2" ht="19">
       <c r="A141" s="5" t="s">
         <v>1144</v>
       </c>
@@ -11863,7 +11866,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="76">
+    <row r="142" spans="1:2" ht="19">
       <c r="A142" s="5" t="s">
         <v>759</v>
       </c>
@@ -11871,7 +11874,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="76">
+    <row r="143" spans="1:2" ht="19">
       <c r="A143" s="5" t="s">
         <v>1146</v>
       </c>
@@ -11879,7 +11882,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="95">
+    <row r="144" spans="1:2" ht="19">
       <c r="A144" s="5" t="s">
         <v>1148</v>
       </c>
@@ -11887,7 +11890,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="76">
+    <row r="145" spans="1:2" ht="19">
       <c r="A145" s="5" t="s">
         <v>1150</v>
       </c>
@@ -11895,7 +11898,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="38">
+    <row r="146" spans="1:2" ht="19">
       <c r="A146" s="5" t="s">
         <v>1152</v>
       </c>
@@ -11903,7 +11906,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="38">
+    <row r="147" spans="1:2" ht="19">
       <c r="A147" s="5" t="s">
         <v>1153</v>
       </c>
@@ -11911,7 +11914,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="57">
+    <row r="148" spans="1:2" ht="19">
       <c r="A148" s="5" t="s">
         <v>1155</v>
       </c>
@@ -11919,7 +11922,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="57">
+    <row r="149" spans="1:2" ht="19">
       <c r="A149" s="5" t="s">
         <v>1157</v>
       </c>
@@ -11927,7 +11930,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="95">
+    <row r="150" spans="1:2" ht="19">
       <c r="A150" s="5" t="s">
         <v>1159</v>
       </c>
@@ -11935,7 +11938,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="57">
+    <row r="151" spans="1:2" ht="19">
       <c r="A151" s="5" t="s">
         <v>1161</v>
       </c>
@@ -11943,7 +11946,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="57">
+    <row r="152" spans="1:2" ht="19">
       <c r="A152" s="5" t="s">
         <v>1162</v>
       </c>
@@ -11951,7 +11954,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="57">
+    <row r="153" spans="1:2" ht="19">
       <c r="A153" s="5" t="s">
         <v>1164</v>
       </c>
@@ -11959,7 +11962,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="57">
+    <row r="154" spans="1:2" ht="19">
       <c r="A154" s="5" t="s">
         <v>1166</v>
       </c>
@@ -11967,7 +11970,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="57">
+    <row r="155" spans="1:2" ht="19">
       <c r="A155" s="5" t="s">
         <v>1168</v>
       </c>
@@ -11975,7 +11978,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="57">
+    <row r="156" spans="1:2" ht="19">
       <c r="A156" s="5" t="s">
         <v>1170</v>
       </c>
@@ -11983,7 +11986,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="76">
+    <row r="157" spans="1:2" ht="19">
       <c r="A157" s="5" t="s">
         <v>1171</v>
       </c>
@@ -11991,7 +11994,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="38">
+    <row r="158" spans="1:2" ht="19">
       <c r="A158" s="5" t="s">
         <v>1173</v>
       </c>
@@ -11999,7 +12002,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="38">
+    <row r="159" spans="1:2" ht="19">
       <c r="A159" s="5" t="s">
         <v>1175</v>
       </c>
@@ -12007,7 +12010,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="160" spans="1:2" ht="57">
+    <row r="160" spans="1:2" ht="19">
       <c r="A160" s="5" t="s">
         <v>1176</v>
       </c>
@@ -12015,7 +12018,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="76">
+    <row r="161" spans="1:2" ht="19">
       <c r="A161" s="5" t="s">
         <v>1177</v>
       </c>
@@ -12023,7 +12026,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="95">
+    <row r="162" spans="1:2" ht="19">
       <c r="A162" s="5" t="s">
         <v>1179</v>
       </c>
@@ -12031,7 +12034,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="38">
+    <row r="163" spans="1:2" ht="19">
       <c r="A163" s="5" t="s">
         <v>1181</v>
       </c>
@@ -12039,7 +12042,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="38">
+    <row r="164" spans="1:2" ht="19">
       <c r="A164" s="5" t="s">
         <v>1182</v>
       </c>
@@ -12047,7 +12050,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="57">
+    <row r="165" spans="1:2" ht="19">
       <c r="A165" s="5" t="s">
         <v>1184</v>
       </c>
@@ -12055,7 +12058,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="38">
+    <row r="166" spans="1:2" ht="19">
       <c r="A166" s="5" t="s">
         <v>833</v>
       </c>
@@ -12063,7 +12066,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="57">
+    <row r="167" spans="1:2" ht="19">
       <c r="A167" s="5" t="s">
         <v>1187</v>
       </c>
@@ -12071,7 +12074,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="38">
+    <row r="168" spans="1:2" ht="19">
       <c r="A168" s="5" t="s">
         <v>842</v>
       </c>
@@ -12079,7 +12082,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="76">
+    <row r="169" spans="1:2" ht="19">
       <c r="A169" s="5" t="s">
         <v>1189</v>
       </c>
@@ -12087,7 +12090,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="76">
+    <row r="170" spans="1:2" ht="19">
       <c r="A170" s="5" t="s">
         <v>1191</v>
       </c>
@@ -12095,7 +12098,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="76">
+    <row r="171" spans="1:2" ht="19">
       <c r="A171" s="5" t="s">
         <v>865</v>
       </c>
@@ -12103,7 +12106,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="76">
+    <row r="172" spans="1:2" ht="19">
       <c r="A172" s="5" t="s">
         <v>870</v>
       </c>
@@ -12111,7 +12114,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="173" spans="1:2" ht="76">
+    <row r="173" spans="1:2" ht="19">
       <c r="A173" s="5" t="s">
         <v>1193</v>
       </c>
@@ -12119,7 +12122,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="174" spans="1:2" ht="57">
+    <row r="174" spans="1:2" ht="19">
       <c r="A174" s="5" t="s">
         <v>887</v>
       </c>
@@ -12127,7 +12130,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="57">
+    <row r="175" spans="1:2" ht="19">
       <c r="A175" s="5" t="s">
         <v>1195</v>
       </c>
@@ -12135,7 +12138,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="57">
+    <row r="176" spans="1:2" ht="19">
       <c r="A176" s="5" t="s">
         <v>1196</v>
       </c>
@@ -12143,7 +12146,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="177" spans="1:2" ht="57">
+    <row r="177" spans="1:2" ht="19">
       <c r="A177" s="5" t="s">
         <v>1197</v>
       </c>
@@ -12151,7 +12154,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="76">
+    <row r="178" spans="1:2" ht="19">
       <c r="A178" s="5" t="s">
         <v>1198</v>
       </c>
@@ -12159,7 +12162,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="76">
+    <row r="179" spans="1:2" ht="19">
       <c r="A179" s="5" t="s">
         <v>1200</v>
       </c>
@@ -12167,7 +12170,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="76">
+    <row r="180" spans="1:2" ht="19">
       <c r="A180" s="5" t="s">
         <v>1202</v>
       </c>
@@ -12175,7 +12178,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="76">
+    <row r="181" spans="1:2" ht="19">
       <c r="A181" s="5" t="s">
         <v>1203</v>
       </c>
@@ -12183,7 +12186,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="76">
+    <row r="182" spans="1:2" ht="19">
       <c r="A182" s="5" t="s">
         <v>900</v>
       </c>
@@ -12191,7 +12194,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="76">
+    <row r="183" spans="1:2" ht="19">
       <c r="A183" s="5" t="s">
         <v>1204</v>
       </c>
@@ -12199,7 +12202,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="76">
+    <row r="184" spans="1:2" ht="19">
       <c r="A184" s="5" t="s">
         <v>1205</v>
       </c>
@@ -12207,7 +12210,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="185" spans="1:2" ht="57">
+    <row r="185" spans="1:2" ht="19">
       <c r="A185" s="5" t="s">
         <v>1206</v>
       </c>
@@ -12215,7 +12218,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="76">
+    <row r="186" spans="1:2" ht="19">
       <c r="A186" s="5" t="s">
         <v>1207</v>
       </c>
@@ -12223,7 +12226,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="76">
+    <row r="187" spans="1:2" ht="19">
       <c r="A187" s="5" t="s">
         <v>1209</v>
       </c>
@@ -12231,7 +12234,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="76">
+    <row r="188" spans="1:2" ht="19">
       <c r="A188" s="5" t="s">
         <v>922</v>
       </c>
@@ -12239,7 +12242,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="38">
+    <row r="189" spans="1:2" ht="19">
       <c r="A189" s="5" t="s">
         <v>932</v>
       </c>
